--- a/ig/sd-concept-map-statut-de-lessai/CodeSystem-eclaire-study-status-code-system.xlsx
+++ b/ig/sd-concept-map-statut-de-lessai/CodeSystem-eclaire-study-status-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T17:10:58+00:00</t>
+    <t>2023-07-27T07:31:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,55 +129,55 @@
     <t>1</t>
   </si>
   <si>
-    <t>INIT</t>
+    <t>a-demarrer</t>
   </si>
   <si>
     <t>A démarrer</t>
   </si>
   <si>
-    <t>RUN</t>
+    <t>en-cours</t>
   </si>
   <si>
     <t>En cours</t>
   </si>
   <si>
-    <t>WAIT</t>
+    <t>suspendue</t>
   </si>
   <si>
     <t>Suspendue</t>
   </si>
   <si>
-    <t>PROL</t>
+    <t>prolongee-prorogee</t>
   </si>
   <si>
     <t>Prolongée - prorogée</t>
   </si>
   <si>
-    <t>EXP</t>
+    <t>expiree</t>
   </si>
   <si>
     <t>Expirée</t>
   </si>
   <si>
-    <t>TERM</t>
+    <t>terminee</t>
   </si>
   <si>
     <t>Terminée</t>
   </si>
   <si>
-    <t>EARLY</t>
+    <t>terminee-fin-anticipee</t>
   </si>
   <si>
     <t>Terminée (fin anticipée)</t>
   </si>
   <si>
-    <t>ARCH</t>
+    <t>archivee</t>
   </si>
   <si>
     <t>Archivée</t>
   </si>
   <si>
-    <t>DISC</t>
+    <t>abandonnee</t>
   </si>
   <si>
     <t>Abandonnée</t>
